--- a/project_time_allocation/timesheet.xlsx
+++ b/project_time_allocation/timesheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aabha\Documents\ENM\project_time_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3173C6F4-AB02-4F0B-BE20-5E582D233629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7172F2-96EB-4126-AE39-B5AA0D434263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time</t>
   </si>
@@ -41,6 +41,12 @@
   <si>
     <t>- Django proj setup
 - git repo setup</t>
+  </si>
+  <si>
+    <t>2.5hr</t>
+  </si>
+  <si>
+    <t>-added login page &amp; added authentication</t>
   </si>
 </sst>
 </file>
@@ -371,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -405,6 +411,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>45665</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/project_time_allocation/timesheet.xlsx
+++ b/project_time_allocation/timesheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aabha\Documents\ENM\project_time_allocation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A7172F2-96EB-4126-AE39-B5AA0D434263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8F25CB-57A4-4542-82A8-E55C9381F620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Time</t>
   </si>
@@ -47,6 +47,21 @@
   </si>
   <si>
     <t>-added login page &amp; added authentication</t>
+  </si>
+  <si>
+    <t>1 hr</t>
+  </si>
+  <si>
+    <t>- Signup page</t>
+  </si>
+  <si>
+    <t>-Signup page &amp; after that redirecting to login page</t>
+  </si>
+  <si>
+    <t>2hr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- signup and login page completed </t>
   </si>
 </sst>
 </file>
@@ -90,13 +105,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -422,6 +438,39 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>45679</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>45315</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>45689</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
